--- a/[MVBA]AutoTest/Documents/Src/BlackboxTest/StickyNote.xlsx
+++ b/[MVBA]AutoTest/Documents/Src/BlackboxTest/StickyNote.xlsx
@@ -1,30 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuoAi\Downloads\MVBA auto test\TestCases\case document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\水滸\Documents\GitHub\Viewsonic-AutoTest\[MVBA]AutoTest\Documents\Src\BlackboxTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59F842-96DF-4B4E-9184-44AB97B26E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E805256-90F2-4B9B-A72C-9B16FBF39D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pen" sheetId="1" r:id="rId1"/>
-    <sheet name="Text" sheetId="2" r:id="rId2"/>
+    <sheet name="Case 1-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Case 1-2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
-  <si>
-    <t>項目</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>步驟</t>
   </si>
@@ -32,9 +29,6 @@
     <t>結果</t>
   </si>
   <si>
-    <t>Case1-1: 實作StickyNote的Pen模式</t>
-  </si>
-  <si>
     <t>Open MagicBox</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>比對Screenshot StickyNote Bar</t>
   </si>
   <si>
-    <t>Case1-2: 實作StickyNote的Text模式</t>
-  </si>
-  <si>
     <t>Click Stickynote T icon</t>
   </si>
   <si>
@@ -96,13 +87,27 @@
   </si>
   <si>
     <t>返回Pen模式防止游標出現</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>執行動作</t>
+  </si>
+  <si>
+    <t>範例圖片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際圖片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +121,26 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,14 +160,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{326F33C3-1D6F-4D0C-AEEA-1FB05C3A050C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,91 +476,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -538,112 +580,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="3" width="50" customWidth="1"/>
+    <col min="2" max="2" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
